--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1278 +397,1381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>39.93798626779337</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3.489730948314236</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>16.5066956859138</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="F2">
         <v>15.05180871048573</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>41.03770328797555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>1.615139733691643</v>
       </c>
-      <c r="H2" t="n">
-        <v>117.6390646341743</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>121.072644523815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>41.01359948109457</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.13597742022428</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>12.69745821993369</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="F3">
         <v>13.05274036612434</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>34.90563268172632</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H3" t="n">
-        <v>106.4976109121139</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>111.2187832603699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>41.43449160803856</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.911473186516331</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>13.54395543459593</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="F4">
         <v>12.46477908837099</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>38.67921459326431</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H4" t="n">
-        <v>111.4953824061266</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>116.2165547543826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>48.54289197420317</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.394476008988298</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>19.04618732990053</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="F5">
         <v>16.22773126599242</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>40.5660055490333</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>1.845873981361877</v>
       </c>
-      <c r="H5" t="n">
-        <v>130.6231661094796</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>137.0611284025559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>47.56081034466724</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.748229537078254</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>16.92994429324492</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="F6">
         <v>15.75736224378974</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>41.03770328797555</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>1.384405486021409</v>
       </c>
-      <c r="H6" t="n">
-        <v>126.4184551927771</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>131.9980225134433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>54.1547870001226</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.618980242696244</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>18.19969011523829</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="F7">
         <v>12.93514811057367</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>36.32072589855308</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>2.307342476702347</v>
       </c>
-      <c r="H7" t="n">
-        <v>127.5366738438862</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>133.5454386507575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>60.14080836110335</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2.843484476404192</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>24.97166783253626</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>9.871542182717025</v>
+      </c>
+      <c r="F8">
         <v>13.87588615497903</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>25.47167790288137</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>2.538076724372582</v>
       </c>
-      <c r="H8" t="n">
-        <v>129.8416014522768</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>139.7131436349938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>69.72779569704909</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.809490121348122</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>20.73918175922503</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>12.01752961374247</v>
+      </c>
+      <c r="F9">
         <v>6.820350821938844</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>22.16979373028564</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H9" t="n">
-        <v>122.1895491205277</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>134.2070787342701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>78.09887244404563</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.680240826966114</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>13.12070682726482</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>17.59709693440861</v>
+      </c>
+      <c r="F10">
         <v>4.586097966476119</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>24.99998016393912</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H10" t="n">
-        <v>122.9473667240322</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>140.5444636584409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>54.29508437577062</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.197238004494149</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>6.771977717297967</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>17.16789944820352</v>
+      </c>
+      <c r="F11">
         <v>4.703690222026789</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>25.47167790288137</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H11" t="n">
-        <v>93.90113671781135</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>111.0690361660149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>43.07129432393172</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2.714235182022184</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>10.15796657594695</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>12.87592458615264</v>
+      </c>
+      <c r="F12">
         <v>3.174990899868082</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>35.37733042066859</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>94.49581740243752</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>107.3717419885902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>38.11412038436954</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2.843484476404192</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>7.618474931960215</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="F13">
         <v>3.292583155418753</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>20.75470051345889</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>72.62336346161159</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>76.91533832366247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>24.17791440333627</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.326487298876157</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5.502231895304599</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="F14">
         <v>2.704621877665404</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>24.05658468605463</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>58.76784016123706</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>65.20580245431339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>15.33917973751315</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.326487298876157</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.269745821993369</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F15">
         <v>1.293514811057367</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>17.45281634086316</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>37.68174401030321</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>41.54452138614899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>7.529292493108589</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.197238004494149</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.423248607331123</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="F16">
         <v>2.351845111013394</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>16.50942086297867</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H16" t="n">
-        <v>29.24177932659616</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>32.24616173003178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>5.331300274623471</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.163243649438078</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="F17">
         <v>2.469437366564065</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>16.03772312403642</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>25.84820162932428</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>27.56499157414463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3.694497558730301</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1.269745821993369</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>2.116660599912056</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>14.15093216826743</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>22.00733191519521</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3.367137015551665</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.292492943820088</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1.269745821993369</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.8583949724101758</v>
+      </c>
+      <c r="F19">
         <v>1.999068344361385</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>21.69809599134339</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>29.62654011706989</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>30.48493508948007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>5.79895819345009</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.292492943820088</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.269745821993369</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="F20">
         <v>3.057398644317413</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>39.62261007114881</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H20" t="n">
-        <v>51.2719399224</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>52.98872986722035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>19.03367729624344</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.292492943820088</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>4.23248607331123</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="F21">
         <v>3.645359922070762</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>57.54712415095421</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H21" t="n">
-        <v>85.98187463406997</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>94.56582435817172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>42.51010482133979</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.03399435505607</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>11.42771239794032</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>18.45549190681879</v>
+      </c>
+      <c r="F22">
         <v>10.1129339773576</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>62.2641015403767</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H22" t="n">
-        <v>128.2717840827514</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>146.7272759895702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>66.3606586814974</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.809490121348122</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>16.5066956859138</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>16.73870196199843</v>
+      </c>
+      <c r="F23">
         <v>11.17126427731363</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>52.83014676153175</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>1.384405486021409</v>
       </c>
-      <c r="H23" t="n">
-        <v>150.0626610136261</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>166.8013629756246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>78.56653036287221</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.877478831460262</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>18.62293872256942</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>18.0262944206137</v>
+      </c>
+      <c r="F24">
         <v>14.81662419938439</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>51.415053544705</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>1.615139733691643</v>
       </c>
-      <c r="H24" t="n">
-        <v>168.9137653946829</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>186.9400598152966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>50.8811815683363</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2.584985887640175</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>19.46943593723165</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="F25">
         <v>13.75829389942836</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>54.71693771730072</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>1.845873981361877</v>
       </c>
-      <c r="H25" t="n">
-        <v>143.2567089912991</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>152.699053687811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>41.85538373498252</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.489730948314236</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>16.5066956859138</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>3.862777375845792</v>
+      </c>
+      <c r="F26">
         <v>16.93328479929644</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>44.81128519951352</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.615139733691643</v>
       </c>
-      <c r="H26" t="n">
-        <v>125.2115201017122</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>129.074297477558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>41.71508635933451</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4.006728125842271</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>12.27420961260257</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="F27">
         <v>18.46198412145515</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>45.28298293845577</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H27" t="n">
-        <v>122.6639281483712</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>127.3851004966272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>39.23649938955343</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.489730948314236</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>13.12070682726482</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="F28">
         <v>13.75829389942836</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>35.37733042066859</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>1.845873981361877</v>
       </c>
-      <c r="H28" t="n">
-        <v>106.8284354665913</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>114.1247927320778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>48.49612618232053</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>3.360481653932228</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>15.66019847125155</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="F29">
         <v>15.40458547713773</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>44.81128519951352</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.384405486021409</v>
       </c>
-      <c r="H29" t="n">
-        <v>129.117082470177</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>134.6966497908431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>42.27627586192649</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>4.523725303370305</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>14.8137012565893</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="F30">
         <v>13.40551713277635</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>39.62261007114881</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.845873981361877</v>
       </c>
-      <c r="H30" t="n">
-        <v>116.4877036071731</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>121.6380734416342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>52.89211061929074</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4.394476008988298</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>21.16243036655615</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="F31">
         <v>12.46477908837099</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>35.37733042066859</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H31" t="n">
-        <v>126.7525949992152</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>134.0489522647017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>65.79946917890545</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.360481653932228</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>28.35765669118524</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>10.30073966892211</v>
+      </c>
+      <c r="F32">
         <v>13.17033262167501</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>28.30186433653486</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>3.230279467383286</v>
       </c>
-      <c r="H32" t="n">
-        <v>142.2200839496161</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>152.5208236185382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>78.56653036287221</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3.360481653932228</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>18.62293872256942</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>15.45110950338317</v>
+      </c>
+      <c r="F33">
         <v>8.70182691074956</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>21.69809599134339</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H33" t="n">
-        <v>131.8728106321477</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>147.3239201355309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>81.46600945959725</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.809490121348122</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>12.69745821993369</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>19.31388687922896</v>
+      </c>
+      <c r="F34">
         <v>5.291651499780137</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>24.99998016393912</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H34" t="n">
-        <v>126.4953237122686</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>145.8092105914975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>54.66921071083194</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.06798871011214</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>6.348729109966844</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>15.88030698958826</v>
+      </c>
+      <c r="F35">
         <v>5.526836010881476</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>28.30186433653486</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H35" t="n">
-        <v>97.14536312599751</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>113.0256701155858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>46.39166554760072</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2.326487298876157</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>9.734717968615827</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>13.30512207235773</v>
+      </c>
+      <c r="F36">
         <v>4.46850571092545</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>36.32072589855308</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H36" t="n">
-        <v>99.93430516758194</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>113.2394272399397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>39.56385993273207</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.455736593258166</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>8.888220753953584</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="F37">
         <v>2.822214133216074</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>20.75470051345889</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>74.48473192661878</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>80.49349673349002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>16.46155874269702</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.06798871011214</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1.269745821993369</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="F38">
         <v>2.116660599912056</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>13.67923442932518</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>35.59518830403977</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>40.74555813850083</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>10.56906896548162</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.163243649438078</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>1.269745821993369</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>2.575184917230528</v>
+      </c>
+      <c r="F39">
         <v>1.058330299956028</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>13.20753669038294</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>27.26792542725203</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>29.84311034448256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>10.66260054924694</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.326487298876157</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="F40">
         <v>1.763883833260046</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>19.33960729663216</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>34.93907619267755</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>37.94345859611316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>5.050705523327495</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.197238004494149</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.423248607331123</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F41">
         <v>1.881476088810716</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>19.8113050355744</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>29.36397325953789</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>31.50996069056333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>4.957173939562177</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.421742238202096</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>1.881476088810716</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>17.45281634086316</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>25.71320860743815</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>4.115389685674256</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.163243649438078</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.423248607331123</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>1.287592458615264</v>
+      </c>
+      <c r="F43">
         <v>1.763883833260046</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>23.58488694711238</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>31.05065272281589</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>32.33824518143115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>6.68750823922067</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1.692994429324492</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="F44">
         <v>2.939806388766743</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>32.54714398701509</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>44.64294881061905</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>46.35973875543939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>19.31427204753942</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>5.502231895304599</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>7.725554751691584</v>
+      </c>
+      <c r="F45">
         <v>5.291651499780137</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>68.3961721466259</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H45" t="n">
-        <v>99.51055760321235</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>107.2361123549039</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>43.77278120217164</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>13.12070682726482</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>20.60147933784422</v>
+      </c>
+      <c r="F46">
         <v>11.17126427731363</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>75.47163823075961</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H46" t="n">
-        <v>144.6163411636664</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>165.2178205015107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>63.46117958477237</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.03399435505607</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>12.69745821993369</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>17.16789944820352</v>
+      </c>
+      <c r="F47">
         <v>10.34811848845894</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>47.64147163316701</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>1.153671238351173</v>
       </c>
-      <c r="H47" t="n">
-        <v>136.3358935197392</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>153.5037929679428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>71.78549053988623</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.809490121348122</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>13.96720404192706</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>13.73431955856281</v>
+      </c>
+      <c r="F48">
         <v>11.87681781061764</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>42.92449424374453</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H48" t="n">
-        <v>142.8249652528641</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>156.5592848114269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>51.53590265469354</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2.197238004494149</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>16.08344707858267</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="F49">
         <v>14.93421645493506</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>58.01882188989646</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H49" t="n">
-        <v>143.2310945779423</v>
+      <c r="I49">
+        <v>152.6734392744543</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>39.93798626779337</v>
+        <v>76.76702749677651</v>
       </c>
       <c r="C2">
-        <v>3.489730948314236</v>
+        <v>6.70780619406509</v>
       </c>
       <c r="D2">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="E2">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="F2">
-        <v>15.05180871048573</v>
+        <v>28.93191973692166</v>
       </c>
       <c r="G2">
-        <v>41.03770328797555</v>
+        <v>78.88085482299491</v>
       </c>
       <c r="H2">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="I2">
-        <v>121.072644523815</v>
+        <v>232.7204724080516</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>41.01359948109457</v>
+        <v>78.8345235534812</v>
       </c>
       <c r="C3">
-        <v>4.13597742022428</v>
+        <v>7.949992526299361</v>
       </c>
       <c r="D3">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="E3">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="F3">
-        <v>13.05274036612434</v>
+        <v>25.08939914686175</v>
       </c>
       <c r="G3">
-        <v>34.90563268172632</v>
+        <v>67.09406042415661</v>
       </c>
       <c r="H3">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I3">
-        <v>111.2187832603699</v>
+        <v>213.7798169256212</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>41.43449160803856</v>
+        <v>79.64354374958312</v>
       </c>
       <c r="C4">
-        <v>4.911473186516331</v>
+        <v>9.440616124980496</v>
       </c>
       <c r="D4">
-        <v>13.54395543459593</v>
+        <v>26.03359098506165</v>
       </c>
       <c r="E4">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="F4">
-        <v>12.46477908837099</v>
+        <v>23.95924603213825</v>
       </c>
       <c r="G4">
-        <v>38.67921459326431</v>
+        <v>74.3474723619032</v>
       </c>
       <c r="H4">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I4">
-        <v>116.2165547543826</v>
+        <v>223.3863118332742</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>48.54289197420317</v>
+        <v>93.30699595041449</v>
       </c>
       <c r="C5">
-        <v>4.394476008988298</v>
+        <v>8.446867059193073</v>
       </c>
       <c r="D5">
-        <v>19.04618732990053</v>
+        <v>36.60973732274294</v>
       </c>
       <c r="E5">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="F5">
-        <v>16.22773126599242</v>
+        <v>31.19222596636867</v>
       </c>
       <c r="G5">
-        <v>40.5660055490333</v>
+        <v>77.97417833077658</v>
       </c>
       <c r="H5">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="I5">
-        <v>137.0611284025559</v>
+        <v>263.4528276480267</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>47.56081034466724</v>
+        <v>91.41928215951015</v>
       </c>
       <c r="C6">
-        <v>3.748229537078254</v>
+        <v>7.2046807269588</v>
       </c>
       <c r="D6">
-        <v>16.92994429324492</v>
+        <v>32.54198873132706</v>
       </c>
       <c r="E6">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="F6">
-        <v>15.75736224378974</v>
+        <v>30.28810347458987</v>
       </c>
       <c r="G6">
-        <v>41.03770328797555</v>
+        <v>78.88085482299491</v>
       </c>
       <c r="H6">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I6">
-        <v>131.9980225134433</v>
+        <v>253.7207498611694</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>54.1547870001226</v>
+        <v>104.0939318984393</v>
       </c>
       <c r="C7">
-        <v>3.618980242696244</v>
+        <v>6.956243460511944</v>
       </c>
       <c r="D7">
-        <v>18.19969011523829</v>
+        <v>34.98263788617659</v>
       </c>
       <c r="E7">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="F7">
-        <v>12.93514811057367</v>
+        <v>24.86336852391706</v>
       </c>
       <c r="G7">
-        <v>36.32072589855308</v>
+        <v>69.81408990081158</v>
       </c>
       <c r="H7">
-        <v>2.307342476702347</v>
+        <v>4.435071467194332</v>
       </c>
       <c r="I7">
-        <v>133.5454386507575</v>
+        <v>256.6951245921745</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>60.14080836110335</v>
+        <v>115.5999969096657</v>
       </c>
       <c r="C8">
-        <v>2.843484476404192</v>
+        <v>5.465619861830812</v>
       </c>
       <c r="D8">
-        <v>24.97166783253626</v>
+        <v>47.99943337870743</v>
       </c>
       <c r="E8">
-        <v>9.871542182717025</v>
+        <v>18.97464096198901</v>
       </c>
       <c r="F8">
-        <v>13.87588615497903</v>
+        <v>26.67161350747466</v>
       </c>
       <c r="G8">
-        <v>25.47167790288137</v>
+        <v>48.96053057978995</v>
       </c>
       <c r="H8">
-        <v>2.538076724372582</v>
+        <v>4.878578613913765</v>
       </c>
       <c r="I8">
-        <v>139.7131436349938</v>
+        <v>268.5504138133713</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>69.72779569704909</v>
+        <v>134.0276791542081</v>
       </c>
       <c r="C9">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D9">
-        <v>20.73918175922503</v>
+        <v>39.86393619587565</v>
       </c>
       <c r="E9">
-        <v>12.01752961374247</v>
+        <v>23.09956291024749</v>
       </c>
       <c r="F9">
-        <v>6.820350821938844</v>
+        <v>13.10977613079263</v>
       </c>
       <c r="G9">
-        <v>22.16979373028564</v>
+        <v>42.61379513426163</v>
       </c>
       <c r="H9">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I9">
-        <v>134.2070787342701</v>
+        <v>257.9668998425192</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>78.09887244404563</v>
+        <v>150.118191943345</v>
       </c>
       <c r="C10">
-        <v>1.680240826966114</v>
+        <v>3.229684463809117</v>
       </c>
       <c r="D10">
-        <v>13.12070682726482</v>
+        <v>25.22004126677848</v>
       </c>
       <c r="E10">
-        <v>17.59709693440861</v>
+        <v>33.82435997571955</v>
       </c>
       <c r="F10">
-        <v>4.586097966476119</v>
+        <v>8.81519429484332</v>
       </c>
       <c r="G10">
-        <v>24.99998016393912</v>
+        <v>48.05385408757162</v>
       </c>
       <c r="H10">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I10">
-        <v>140.5444636584409</v>
+        <v>270.148340325506</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>54.29508437577062</v>
+        <v>104.3636052971399</v>
       </c>
       <c r="C11">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="D11">
-        <v>6.771977717297967</v>
+        <v>13.01679549253082</v>
       </c>
       <c r="E11">
-        <v>17.16789944820352</v>
+        <v>32.99937558606786</v>
       </c>
       <c r="F11">
-        <v>4.703690222026789</v>
+        <v>9.041224917788021</v>
       </c>
       <c r="G11">
-        <v>25.47167790288137</v>
+        <v>48.96053057978995</v>
       </c>
       <c r="H11">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I11">
-        <v>111.0690361660149</v>
+        <v>213.4919796963519</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>43.07129432393172</v>
+        <v>82.7897334010903</v>
       </c>
       <c r="C12">
-        <v>2.714235182022184</v>
+        <v>5.217182595383957</v>
       </c>
       <c r="D12">
-        <v>10.15796657594695</v>
+        <v>19.52519323879624</v>
       </c>
       <c r="E12">
-        <v>12.87592458615264</v>
+        <v>24.74953168955089</v>
       </c>
       <c r="F12">
-        <v>3.174990899868082</v>
+        <v>6.102826819506914</v>
       </c>
       <c r="G12">
-        <v>35.37733042066859</v>
+        <v>68.00073691637493</v>
       </c>
       <c r="I12">
-        <v>107.3717419885902</v>
+        <v>206.3852046607032</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>38.11412038436954</v>
+        <v>73.2612733136684</v>
       </c>
       <c r="C13">
-        <v>2.843484476404192</v>
+        <v>5.465619861830812</v>
       </c>
       <c r="D13">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="E13">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="F13">
-        <v>3.292583155418753</v>
+        <v>6.328857442451612</v>
       </c>
       <c r="G13">
-        <v>20.75470051345889</v>
+        <v>39.89376565760662</v>
       </c>
       <c r="I13">
-        <v>76.91533832366247</v>
+        <v>147.8432551011716</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>24.17791440333627</v>
+        <v>46.47371570940681</v>
       </c>
       <c r="C14">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="D14">
-        <v>5.502231895304599</v>
+        <v>10.57614633768129</v>
       </c>
       <c r="E14">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="F14">
-        <v>2.704621877665404</v>
+        <v>5.198704327728112</v>
       </c>
       <c r="G14">
-        <v>24.05658468605463</v>
+        <v>46.24050110313495</v>
       </c>
       <c r="I14">
-        <v>65.20580245431339</v>
+        <v>125.33570411877</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>15.33917973751315</v>
+        <v>29.48429159126778</v>
       </c>
       <c r="C15">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="D15">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E15">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F15">
-        <v>1.293514811057367</v>
+        <v>2.486336852391706</v>
       </c>
       <c r="G15">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="I15">
-        <v>41.54452138614899</v>
+        <v>79.85503811349598</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>7.529292493108589</v>
+        <v>14.47247239693327</v>
       </c>
       <c r="C16">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="D16">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="E16">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="F16">
-        <v>2.351845111013394</v>
+        <v>4.520612458894011</v>
       </c>
       <c r="G16">
-        <v>16.50942086297867</v>
+        <v>31.73367722764163</v>
       </c>
       <c r="H16">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I16">
-        <v>32.24616173003178</v>
+        <v>61.98214320562993</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>5.331300274623471</v>
+        <v>10.24758915062356</v>
       </c>
       <c r="C17">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D17">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E17">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="F17">
-        <v>2.469437366564065</v>
+        <v>4.74664308183871</v>
       </c>
       <c r="G17">
-        <v>16.03772312403642</v>
+        <v>30.82700073542329</v>
       </c>
       <c r="I17">
-        <v>27.56499157414463</v>
+        <v>52.9842053610804</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>3.694497558730301</v>
+        <v>7.101399499116325</v>
       </c>
       <c r="C18">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D18">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="F18">
-        <v>2.116660599912056</v>
+        <v>4.068551213004609</v>
       </c>
       <c r="G18">
-        <v>14.15093216826743</v>
+        <v>27.20029476654997</v>
       </c>
       <c r="I18">
-        <v>22.00733191519521</v>
+        <v>42.30151823220157</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>3.367137015551665</v>
+        <v>6.472161568814875</v>
       </c>
       <c r="C19">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D19">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E19">
-        <v>0.8583949724101758</v>
+        <v>1.649968779303392</v>
       </c>
       <c r="F19">
-        <v>1.999068344361385</v>
+        <v>3.842520590059909</v>
       </c>
       <c r="G19">
-        <v>21.69809599134339</v>
+        <v>41.70711864204328</v>
       </c>
       <c r="I19">
-        <v>30.48493508948007</v>
+        <v>58.59679139953954</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>5.79895819345009</v>
+        <v>11.14650047962563</v>
       </c>
       <c r="C20">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D20">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E20">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="F20">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="G20">
-        <v>39.62261007114881</v>
+        <v>76.16082534633991</v>
       </c>
       <c r="H20">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I20">
-        <v>52.98872986722035</v>
+        <v>101.852588547172</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>19.03367729624344</v>
+        <v>36.58569109038412</v>
       </c>
       <c r="C21">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D21">
-        <v>4.23248607331123</v>
+        <v>8.135497182831765</v>
       </c>
       <c r="E21">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="F21">
-        <v>3.645359922070762</v>
+        <v>7.006949311285717</v>
       </c>
       <c r="G21">
-        <v>57.54712415095421</v>
+        <v>110.6145320506365</v>
       </c>
       <c r="H21">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I21">
-        <v>94.56582435817172</v>
+        <v>181.7702372393601</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>42.51010482133979</v>
+        <v>81.71103980628781</v>
       </c>
       <c r="C22">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D22">
-        <v>11.42771239794032</v>
+        <v>21.96584239364577</v>
       </c>
       <c r="E22">
-        <v>18.45549190681879</v>
+        <v>35.47432875502294</v>
       </c>
       <c r="F22">
-        <v>10.1129339773576</v>
+        <v>19.43863357324424</v>
       </c>
       <c r="G22">
-        <v>62.2641015403767</v>
+        <v>119.6812969728199</v>
       </c>
       <c r="H22">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I22">
-        <v>146.7272759895702</v>
+        <v>282.0326682194732</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>66.3606586814974</v>
+        <v>127.5555175853932</v>
       </c>
       <c r="C23">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D23">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="E23">
-        <v>16.73870196199843</v>
+        <v>32.17439119641614</v>
       </c>
       <c r="F23">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="G23">
-        <v>52.83014676153175</v>
+        <v>101.5477671284532</v>
       </c>
       <c r="H23">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I23">
-        <v>166.8013629756246</v>
+        <v>320.6181887136256</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>78.56653036287221</v>
+        <v>151.0171032723471</v>
       </c>
       <c r="C24">
-        <v>3.877478831460262</v>
+        <v>7.453117993405654</v>
       </c>
       <c r="D24">
-        <v>18.62293872256942</v>
+        <v>35.79618760445977</v>
       </c>
       <c r="E24">
-        <v>18.0262944206137</v>
+        <v>34.64934436537123</v>
       </c>
       <c r="F24">
-        <v>14.81662419938439</v>
+        <v>28.47985849103226</v>
       </c>
       <c r="G24">
-        <v>51.415053544705</v>
+        <v>98.82773765179822</v>
       </c>
       <c r="H24">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="I24">
-        <v>186.9400598152966</v>
+        <v>359.3278994054502</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>50.8811815683363</v>
+        <v>97.80155259542482</v>
       </c>
       <c r="C25">
-        <v>2.584985887640175</v>
+        <v>4.968745328937104</v>
       </c>
       <c r="D25">
-        <v>19.46943593723165</v>
+        <v>37.42328704102612</v>
       </c>
       <c r="E25">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="F25">
-        <v>13.75829389942836</v>
+        <v>26.44558288452996</v>
       </c>
       <c r="G25">
-        <v>54.71693771730072</v>
+        <v>105.1744730973265</v>
       </c>
       <c r="H25">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="I25">
-        <v>152.699053687811</v>
+        <v>293.5113546933373</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>41.85538373498252</v>
+        <v>80.45256394568496</v>
       </c>
       <c r="C26">
-        <v>3.489730948314236</v>
+        <v>6.70780619406509</v>
       </c>
       <c r="D26">
-        <v>16.5066956859138</v>
+        <v>31.72843901304389</v>
       </c>
       <c r="E26">
-        <v>3.862777375845792</v>
+        <v>7.424859506865268</v>
       </c>
       <c r="F26">
-        <v>16.93328479929644</v>
+        <v>32.54840970403687</v>
       </c>
       <c r="G26">
-        <v>44.81128519951352</v>
+        <v>86.13426676074157</v>
       </c>
       <c r="H26">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="I26">
-        <v>129.074297477558</v>
+        <v>248.1008951514737</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>41.71508635933451</v>
+        <v>80.18289054698437</v>
       </c>
       <c r="C27">
-        <v>4.006728125842271</v>
+        <v>7.70155525985251</v>
       </c>
       <c r="D27">
-        <v>12.27420961260257</v>
+        <v>23.59294183021213</v>
       </c>
       <c r="E27">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="F27">
-        <v>18.46198412145515</v>
+        <v>35.48680780231798</v>
       </c>
       <c r="G27">
-        <v>45.28298293845577</v>
+        <v>87.04094325295991</v>
       </c>
       <c r="H27">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I27">
-        <v>127.3851004966272</v>
+        <v>244.8539955653733</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>39.23649938955343</v>
+        <v>75.4186605032734</v>
       </c>
       <c r="C28">
-        <v>3.489730948314236</v>
+        <v>6.70780619406509</v>
       </c>
       <c r="D28">
-        <v>13.12070682726482</v>
+        <v>25.22004126677848</v>
       </c>
       <c r="E28">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="F28">
-        <v>13.75829389942836</v>
+        <v>26.44558288452996</v>
       </c>
       <c r="G28">
-        <v>35.37733042066859</v>
+        <v>68.00073691637493</v>
       </c>
       <c r="H28">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="I28">
-        <v>114.1247927320778</v>
+        <v>219.3656195628562</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>48.49612618232053</v>
+        <v>93.21710481751427</v>
       </c>
       <c r="C29">
-        <v>3.360481653932228</v>
+        <v>6.459368927618233</v>
       </c>
       <c r="D29">
-        <v>15.66019847125155</v>
+        <v>30.10133957647753</v>
       </c>
       <c r="E29">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="F29">
-        <v>15.40458547713773</v>
+        <v>29.61001160575577</v>
       </c>
       <c r="G29">
-        <v>44.81128519951352</v>
+        <v>86.13426676074157</v>
       </c>
       <c r="H29">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I29">
-        <v>134.6966497908431</v>
+        <v>258.907931633896</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>42.27627586192649</v>
+        <v>81.26158414178681</v>
       </c>
       <c r="C30">
-        <v>4.523725303370305</v>
+        <v>8.695304325639929</v>
       </c>
       <c r="D30">
-        <v>14.8137012565893</v>
+        <v>28.47424013991118</v>
       </c>
       <c r="E30">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="F30">
-        <v>13.40551713277635</v>
+        <v>25.76749101569586</v>
       </c>
       <c r="G30">
-        <v>39.62261007114881</v>
+        <v>76.16082534633991</v>
       </c>
       <c r="H30">
-        <v>1.845873981361877</v>
+        <v>3.548057173755465</v>
       </c>
       <c r="I30">
-        <v>121.6380734416342</v>
+        <v>233.8073148189495</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>52.89211061929074</v>
+        <v>101.6668713101338</v>
       </c>
       <c r="C31">
-        <v>4.394476008988298</v>
+        <v>8.446867059193073</v>
       </c>
       <c r="D31">
-        <v>21.16243036655615</v>
+        <v>40.67748591415884</v>
       </c>
       <c r="E31">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="F31">
-        <v>12.46477908837099</v>
+        <v>23.95924603213825</v>
       </c>
       <c r="G31">
-        <v>35.37733042066859</v>
+        <v>68.00073691637493</v>
       </c>
       <c r="H31">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I31">
-        <v>134.0489522647017</v>
+        <v>257.6629561495166</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>65.79946917890545</v>
+        <v>126.4768239905908</v>
       </c>
       <c r="C32">
-        <v>3.360481653932228</v>
+        <v>6.459368927618233</v>
       </c>
       <c r="D32">
-        <v>28.35765669118524</v>
+        <v>54.50783112497282</v>
       </c>
       <c r="E32">
-        <v>10.30073966892211</v>
+        <v>19.79962535164071</v>
       </c>
       <c r="F32">
-        <v>13.17033262167501</v>
+        <v>25.31542976980645</v>
       </c>
       <c r="G32">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="H32">
-        <v>3.230279467383286</v>
+        <v>6.209100054072064</v>
       </c>
       <c r="I32">
-        <v>152.5208236185382</v>
+        <v>293.168768751801</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>78.56653036287221</v>
+        <v>151.0171032723471</v>
       </c>
       <c r="C33">
-        <v>3.360481653932228</v>
+        <v>6.459368927618233</v>
       </c>
       <c r="D33">
-        <v>18.62293872256942</v>
+        <v>35.79618760445977</v>
       </c>
       <c r="E33">
-        <v>15.45110950338317</v>
+        <v>29.69943802746107</v>
       </c>
       <c r="F33">
-        <v>8.70182691074956</v>
+        <v>16.72626609790784</v>
       </c>
       <c r="G33">
-        <v>21.69809599134339</v>
+        <v>41.70711864204328</v>
       </c>
       <c r="H33">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I33">
-        <v>147.3239201355309</v>
+        <v>283.179511158715</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>81.46600945959725</v>
+        <v>156.59035351216</v>
       </c>
       <c r="C34">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D34">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="E34">
-        <v>19.31388687922896</v>
+        <v>37.12429753432632</v>
       </c>
       <c r="F34">
-        <v>5.291651499780137</v>
+        <v>10.17137803251152</v>
       </c>
       <c r="G34">
-        <v>24.99998016393912</v>
+        <v>48.05385408757162</v>
       </c>
       <c r="H34">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I34">
-        <v>145.8092105914975</v>
+        <v>280.2680035920401</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>54.66921071083194</v>
+        <v>105.0827343603416</v>
       </c>
       <c r="C35">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="D35">
-        <v>6.348729109966844</v>
+        <v>12.20324577424765</v>
       </c>
       <c r="E35">
-        <v>15.88030698958826</v>
+        <v>30.52442241711275</v>
       </c>
       <c r="F35">
-        <v>5.526836010881476</v>
+        <v>10.62343927840092</v>
       </c>
       <c r="G35">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="H35">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I35">
-        <v>113.0256701155858</v>
+        <v>217.252934773072</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>46.39166554760072</v>
+        <v>89.17200383700502</v>
       </c>
       <c r="C36">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="D36">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="E36">
-        <v>13.30512207235773</v>
+        <v>25.57451607920258</v>
       </c>
       <c r="F36">
-        <v>4.46850571092545</v>
+        <v>8.589163671898621</v>
       </c>
       <c r="G36">
-        <v>36.32072589855308</v>
+        <v>69.81408990081158</v>
       </c>
       <c r="H36">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I36">
-        <v>113.2394272399397</v>
+        <v>217.6638092456326</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>39.56385993273207</v>
+        <v>76.04789843357477</v>
       </c>
       <c r="C37">
-        <v>2.455736593258166</v>
+        <v>4.720308062490248</v>
       </c>
       <c r="D37">
-        <v>8.888220753953584</v>
+        <v>17.08454408394671</v>
       </c>
       <c r="E37">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="F37">
-        <v>2.822214133216074</v>
+        <v>5.424734950672812</v>
       </c>
       <c r="G37">
-        <v>20.75470051345889</v>
+        <v>39.89376565760662</v>
       </c>
       <c r="I37">
-        <v>80.49349673349002</v>
+        <v>154.7210326434149</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>16.46155874269702</v>
+        <v>31.64167878087275</v>
       </c>
       <c r="C38">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="D38">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E38">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="F38">
-        <v>2.116660599912056</v>
+        <v>4.068551213004609</v>
       </c>
       <c r="G38">
-        <v>13.67923442932518</v>
+        <v>26.29361827433164</v>
       </c>
       <c r="I38">
-        <v>40.74555813850083</v>
+        <v>78.31930636202856</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>10.56906896548162</v>
+        <v>20.3153960354467</v>
       </c>
       <c r="C39">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D39">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E39">
-        <v>2.575184917230528</v>
+        <v>4.949906337910178</v>
       </c>
       <c r="F39">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="G39">
-        <v>13.20753669038294</v>
+        <v>25.3869417821133</v>
       </c>
       <c r="I39">
-        <v>29.84311034448256</v>
+        <v>57.36310431484371</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>10.66260054924694</v>
+        <v>20.49517830124712</v>
       </c>
       <c r="C40">
-        <v>2.326487298876157</v>
+        <v>4.471870796043392</v>
       </c>
       <c r="D40">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E40">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="F40">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="G40">
-        <v>19.33960729663216</v>
+        <v>37.1737361809516</v>
       </c>
       <c r="I40">
-        <v>37.94345859611316</v>
+        <v>72.93323478654085</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>5.050705523327495</v>
+        <v>9.708242353222319</v>
       </c>
       <c r="C41">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="D41">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="E41">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F41">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="G41">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="I41">
-        <v>31.50996069056333</v>
+        <v>60.56705018964567</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>4.957173939562177</v>
+        <v>9.528460087421907</v>
       </c>
       <c r="C42">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="F42">
-        <v>1.881476088810716</v>
+        <v>3.616489967115207</v>
       </c>
       <c r="G42">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="I42">
-        <v>25.71320860743815</v>
+        <v>49.42479019753083</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>4.115389685674256</v>
+        <v>7.910419695218187</v>
       </c>
       <c r="C43">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D43">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="E43">
-        <v>1.287592458615264</v>
+        <v>2.474953168955089</v>
       </c>
       <c r="F43">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="G43">
-        <v>23.58488694711238</v>
+        <v>45.33382461091661</v>
       </c>
       <c r="I43">
-        <v>32.33824518143115</v>
+        <v>62.15914193556527</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>6.68750823922067</v>
+        <v>12.85443200472956</v>
       </c>
       <c r="C44">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D44">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="E44">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="F44">
-        <v>2.939806388766743</v>
+        <v>5.650765573617513</v>
       </c>
       <c r="G44">
-        <v>32.54714398701509</v>
+        <v>62.56067796306492</v>
       </c>
       <c r="I44">
-        <v>46.35973875543939</v>
+        <v>89.1106355718326</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>19.31427204753942</v>
+        <v>37.12503788778535</v>
       </c>
       <c r="C45">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D45">
-        <v>5.502231895304599</v>
+        <v>10.57614633768129</v>
       </c>
       <c r="E45">
-        <v>7.725554751691584</v>
+        <v>14.84971901373054</v>
       </c>
       <c r="F45">
-        <v>5.291651499780137</v>
+        <v>10.17137803251152</v>
       </c>
       <c r="G45">
-        <v>68.3961721466259</v>
+        <v>131.4680913716582</v>
       </c>
       <c r="H45">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I45">
-        <v>107.2361123549039</v>
+        <v>206.1245033887675</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>43.77278120217164</v>
+        <v>84.13810039459345</v>
       </c>
       <c r="C46">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D46">
-        <v>13.12070682726482</v>
+        <v>25.22004126677848</v>
       </c>
       <c r="E46">
-        <v>20.60147933784422</v>
+        <v>39.59925070328142</v>
       </c>
       <c r="F46">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="G46">
-        <v>75.47163823075961</v>
+        <v>145.0682387549332</v>
       </c>
       <c r="H46">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I46">
-        <v>165.2178205015107</v>
+        <v>317.574373538832</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>63.46117958477237</v>
+        <v>121.9822673455804</v>
       </c>
       <c r="C47">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D47">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="E47">
-        <v>17.16789944820352</v>
+        <v>32.99937558606786</v>
       </c>
       <c r="F47">
-        <v>10.34811848845894</v>
+        <v>19.89069481913365</v>
       </c>
       <c r="G47">
-        <v>47.64147163316701</v>
+        <v>91.57432571405154</v>
       </c>
       <c r="H47">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I47">
-        <v>153.5037929679428</v>
+        <v>295.0581888785008</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>71.78549053988623</v>
+        <v>137.9828890018172</v>
       </c>
       <c r="C48">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D48">
-        <v>13.96720404192706</v>
+        <v>26.84714070334483</v>
       </c>
       <c r="E48">
-        <v>13.73431955856281</v>
+        <v>26.39950046885427</v>
       </c>
       <c r="F48">
-        <v>11.87681781061764</v>
+        <v>22.82909291741474</v>
       </c>
       <c r="G48">
-        <v>42.92449424374453</v>
+        <v>82.50756079186823</v>
       </c>
       <c r="H48">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I48">
-        <v>156.5592848114269</v>
+        <v>300.9313199069941</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>51.53590265469354</v>
+        <v>99.06002845602767</v>
       </c>
       <c r="C49">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="D49">
-        <v>16.08344707858267</v>
+        <v>30.91488929476071</v>
       </c>
       <c r="E49">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="F49">
-        <v>14.93421645493506</v>
+        <v>28.70588911397696</v>
       </c>
       <c r="G49">
-        <v>58.01882188989646</v>
+        <v>111.5212085428549</v>
       </c>
       <c r="H49">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I49">
-        <v>152.6734392744543</v>
+        <v>293.462119802993</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>30.85030076973261</v>
+        <v>17.98405130142552</v>
       </c>
       <c r="C2">
-        <v>2.69566043312896</v>
+        <v>1.57142375636665</v>
       </c>
       <c r="D2">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="E2">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="F2">
-        <v>11.62684624941712</v>
+        <v>6.777820449272613</v>
       </c>
       <c r="G2">
-        <v>31.6997827793344</v>
+        <v>18.47925321710037</v>
       </c>
       <c r="H2">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="I2">
-        <v>93.52318050043195</v>
+        <v>54.51893933048437</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>31.68116367102517</v>
+        <v>18.46839928729529</v>
       </c>
       <c r="C3">
-        <v>3.194856809634324</v>
+        <v>1.862428155693807</v>
       </c>
       <c r="D3">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="E3">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="F3">
-        <v>10.08265573191641</v>
+        <v>5.877641170853595</v>
       </c>
       <c r="G3">
-        <v>26.96303362839938</v>
+        <v>15.71798549500491</v>
       </c>
       <c r="H3">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I3">
-        <v>85.91151521310012</v>
+        <v>50.08175150407076</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>32.00628393674835</v>
+        <v>18.65792676002694</v>
       </c>
       <c r="C4">
-        <v>3.79389246144076</v>
+        <v>2.211633434886397</v>
       </c>
       <c r="D4">
-        <v>10.46209731175375</v>
+        <v>6.098835022045596</v>
       </c>
       <c r="E4">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="F4">
-        <v>9.628482050298549</v>
+        <v>5.612882559553884</v>
       </c>
       <c r="G4">
-        <v>29.87795618282093</v>
+        <v>17.41722717014057</v>
       </c>
       <c r="H4">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I4">
-        <v>89.77206924140928</v>
+        <v>52.33224501514712</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>37.49720398007314</v>
+        <v>21.8588351883837</v>
       </c>
       <c r="C5">
-        <v>3.394535360236469</v>
+        <v>1.978829915424671</v>
       </c>
       <c r="D5">
-        <v>14.71232434465371</v>
+        <v>8.57648674975162</v>
       </c>
       <c r="E5">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="F5">
-        <v>12.53519361265283</v>
+        <v>7.307337671872037</v>
       </c>
       <c r="G5">
-        <v>31.33541746003171</v>
+        <v>18.2668480077084</v>
       </c>
       <c r="H5">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="I5">
-        <v>105.8735662510762</v>
+        <v>61.71854404713894</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>36.73859002671903</v>
+        <v>21.41660441867653</v>
       </c>
       <c r="C6">
-        <v>2.895338983731107</v>
+        <v>1.687825516097514</v>
       </c>
       <c r="D6">
-        <v>13.07762163969219</v>
+        <v>7.623543777556994</v>
       </c>
       <c r="E6">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="F6">
-        <v>12.17185466735855</v>
+        <v>7.095530782832268</v>
       </c>
       <c r="G6">
-        <v>31.6997827793344</v>
+        <v>18.47925321710037</v>
       </c>
       <c r="H6">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I6">
-        <v>101.9625443367317</v>
+        <v>59.43863049707149</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>41.83214085638214</v>
+        <v>24.38586815813905</v>
       </c>
       <c r="C7">
-        <v>2.795499708430033</v>
+        <v>1.629624636232081</v>
       </c>
       <c r="D7">
-        <v>14.0584432626691</v>
+        <v>8.195309560873769</v>
       </c>
       <c r="E7">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="F7">
-        <v>9.991820995592834</v>
+        <v>5.824689448593653</v>
       </c>
       <c r="G7">
-        <v>28.05612958630747</v>
+        <v>16.35520112318078</v>
       </c>
       <c r="H7">
-        <v>1.782318440087441</v>
+        <v>1.038994935616866</v>
       </c>
       <c r="I7">
-        <v>103.1578538080701</v>
+        <v>60.13543105710756</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>46.4560735244451</v>
+        <v>27.08136999254476</v>
       </c>
       <c r="C8">
-        <v>2.196464056623598</v>
+        <v>1.280419357039493</v>
       </c>
       <c r="D8">
-        <v>19.28949191854597</v>
+        <v>11.24472707189656</v>
       </c>
       <c r="E8">
-        <v>7.625323003416145</v>
+        <v>4.445149533774374</v>
       </c>
       <c r="F8">
-        <v>10.7184988861814</v>
+        <v>6.248303226673191</v>
       </c>
       <c r="G8">
-        <v>19.67572724234549</v>
+        <v>11.46988130716574</v>
       </c>
       <c r="H8">
-        <v>1.960550284096186</v>
+        <v>1.142894429178552</v>
       </c>
       <c r="I8">
-        <v>107.9221289156539</v>
+        <v>62.91274491827269</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>53.86159068813971</v>
+        <v>31.39838464921013</v>
       </c>
       <c r="C9">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D9">
-        <v>16.02008650862293</v>
+        <v>9.338841127507319</v>
       </c>
       <c r="E9">
-        <v>9.283001917202261</v>
+        <v>5.411486388942715</v>
       </c>
       <c r="F9">
-        <v>5.268414706767133</v>
+        <v>3.071199891076654</v>
       </c>
       <c r="G9">
-        <v>17.12517000722663</v>
+        <v>9.983044841422036</v>
       </c>
       <c r="H9">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I9">
-        <v>103.6689410582086</v>
+        <v>60.43336719052164</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>60.32787152863403</v>
+        <v>35.16787549576184</v>
       </c>
       <c r="C10">
-        <v>1.297910578913944</v>
+        <v>0.7566114382506091</v>
       </c>
       <c r="D10">
-        <v>10.13515677076144</v>
+        <v>5.90824642760667</v>
       </c>
       <c r="E10">
-        <v>13.59296709304617</v>
+        <v>7.923962212380405</v>
       </c>
       <c r="F10">
-        <v>3.542554716619278</v>
+        <v>2.06511716813775</v>
       </c>
       <c r="G10">
-        <v>19.3113619230428</v>
+        <v>11.25747609777379</v>
       </c>
       <c r="H10">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I10">
-        <v>108.5642862990351</v>
+        <v>63.28708782703443</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>41.94051427828987</v>
+        <v>24.44904398238294</v>
       </c>
       <c r="C11">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="D11">
-        <v>5.231048655876874</v>
+        <v>3.049417511022798</v>
       </c>
       <c r="E11">
-        <v>13.26143131028895</v>
+        <v>7.730694841346736</v>
       </c>
       <c r="F11">
-        <v>3.63338945294285</v>
+        <v>2.118068890397692</v>
       </c>
       <c r="G11">
-        <v>19.67572724234549</v>
+        <v>11.46988130716574</v>
       </c>
       <c r="H11">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I11">
-        <v>85.79584230787975</v>
+        <v>50.01432047715161</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>33.27064052567183</v>
+        <v>19.39497804287225</v>
       </c>
       <c r="C12">
-        <v>2.096624781322525</v>
+        <v>1.222218477174061</v>
       </c>
       <c r="D12">
-        <v>7.846572983815314</v>
+        <v>4.574126266534197</v>
       </c>
       <c r="E12">
-        <v>9.946073482716711</v>
+        <v>5.798021131010052</v>
       </c>
       <c r="F12">
-        <v>2.452537880736423</v>
+        <v>1.429696501018442</v>
       </c>
       <c r="G12">
-        <v>27.32739894770208</v>
+        <v>15.93039070439687</v>
       </c>
       <c r="I12">
-        <v>82.93984860196488</v>
+        <v>48.34943112300587</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>29.44144628493219</v>
+        <v>17.16276558625503</v>
       </c>
       <c r="C13">
-        <v>2.196464056623598</v>
+        <v>1.280419357039493</v>
       </c>
       <c r="D13">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="E13">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="F13">
-        <v>2.543372617059995</v>
+        <v>1.482648223278385</v>
       </c>
       <c r="G13">
-        <v>16.03207404931855</v>
+        <v>9.34582921324616</v>
       </c>
       <c r="I13">
-        <v>59.41364457336805</v>
+        <v>34.6349307900564</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>18.67635304209808</v>
+        <v>10.88730037802926</v>
       </c>
       <c r="C14">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="D14">
-        <v>4.250227032899961</v>
+        <v>2.477651727706023</v>
       </c>
       <c r="E14">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="F14">
-        <v>2.089198935442139</v>
+        <v>1.217889611978672</v>
       </c>
       <c r="G14">
-        <v>18.5826312844374</v>
+        <v>10.83266567898987</v>
       </c>
       <c r="I14">
-        <v>50.36855399165525</v>
+        <v>29.36213379978662</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>11.84882746191136</v>
+        <v>6.907223450664603</v>
       </c>
       <c r="C15">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="D15">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E15">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F15">
-        <v>0.9991820995592837</v>
+        <v>0.5824689448593653</v>
       </c>
       <c r="G15">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="I15">
-        <v>32.09127699888157</v>
+        <v>18.70747310322398</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>5.816040309047951</v>
+        <v>3.390435901088416</v>
       </c>
       <c r="C16">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="D16">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="E16">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="F16">
-        <v>1.816694726471425</v>
+        <v>1.059034445198846</v>
       </c>
       <c r="G16">
-        <v>12.7527861755943</v>
+        <v>7.434182328718538</v>
       </c>
       <c r="H16">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I16">
-        <v>24.90871175553352</v>
+        <v>14.52042731795443</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>4.118190032493581</v>
+        <v>2.400681321267573</v>
       </c>
       <c r="C17">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D17">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E17">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="F17">
-        <v>1.907529462794996</v>
+        <v>1.111986167458788</v>
       </c>
       <c r="G17">
-        <v>12.3884208562916</v>
+        <v>7.22177711932658</v>
       </c>
       <c r="I17">
-        <v>21.29271804230333</v>
+        <v>12.41249919985435</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.853833443570113</v>
+        <v>1.663630038422267</v>
       </c>
       <c r="C18">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D18">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="F18">
-        <v>1.635025253824282</v>
+        <v>0.9531310006789613</v>
       </c>
       <c r="G18">
-        <v>10.93095957908083</v>
+        <v>6.372156281758746</v>
       </c>
       <c r="I18">
-        <v>16.99967555125858</v>
+        <v>9.909888383369339</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.600962125785418</v>
+        <v>1.516219781853205</v>
       </c>
       <c r="C19">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D19">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E19">
-        <v>0.6630715655144475</v>
+        <v>0.3865347420673367</v>
       </c>
       <c r="F19">
-        <v>1.544190517500711</v>
+        <v>0.9001792784190192</v>
       </c>
       <c r="G19">
-        <v>16.76080468792394</v>
+        <v>9.770639632030079</v>
       </c>
       <c r="I19">
-        <v>23.54824327271215</v>
+        <v>13.72734801634073</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>4.479434772185998</v>
+        <v>2.61126740208052</v>
       </c>
       <c r="C20">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D20">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E20">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="F20">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="G20">
-        <v>30.60668682142632</v>
+        <v>17.84203758892449</v>
       </c>
       <c r="H20">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I20">
-        <v>40.93141408905045</v>
+        <v>23.86079332943097</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>14.70266090548146</v>
+        <v>8.57085348908687</v>
       </c>
       <c r="C21">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D21">
-        <v>3.269405409923047</v>
+        <v>1.905885944389248</v>
       </c>
       <c r="E21">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="F21">
-        <v>2.815876826030709</v>
+        <v>1.641503390058211</v>
       </c>
       <c r="G21">
-        <v>44.45256895492871</v>
+        <v>25.9134355458189</v>
       </c>
       <c r="H21">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I21">
-        <v>73.04785234852787</v>
+        <v>42.58293408224259</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>32.83714683804092</v>
+        <v>19.14227474589673</v>
       </c>
       <c r="C22">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D22">
-        <v>8.827394606792224</v>
+        <v>5.145892049850972</v>
       </c>
       <c r="E22">
-        <v>14.25603865856062</v>
+        <v>8.310496954447743</v>
       </c>
       <c r="F22">
-        <v>7.811787323827126</v>
+        <v>4.553848114355038</v>
       </c>
       <c r="G22">
-        <v>48.09622214795564</v>
+        <v>28.03748763973849</v>
       </c>
       <c r="H22">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I22">
-        <v>113.3402311536201</v>
+        <v>66.07120451745918</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>51.26062856235433</v>
+        <v>29.88216486735691</v>
       </c>
       <c r="C23">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D23">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="E23">
-        <v>12.92989552753173</v>
+        <v>7.537427470313067</v>
       </c>
       <c r="F23">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="G23">
-        <v>40.80891576190176</v>
+        <v>23.78938345189932</v>
       </c>
       <c r="H23">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I23">
-        <v>128.8465618194944</v>
+        <v>75.11055386686806</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>60.68911626832646</v>
+        <v>35.37846157657478</v>
       </c>
       <c r="C24">
-        <v>2.995178259032178</v>
+        <v>1.746026395962944</v>
       </c>
       <c r="D24">
-        <v>14.3853838036614</v>
+        <v>8.385898155312693</v>
       </c>
       <c r="E24">
-        <v>13.92450287580339</v>
+        <v>8.117229583414074</v>
       </c>
       <c r="F24">
-        <v>11.44517677676997</v>
+        <v>6.67191700475273</v>
       </c>
       <c r="G24">
-        <v>39.71581980399367</v>
+        <v>23.15216782372344</v>
       </c>
       <c r="H24">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="I24">
-        <v>144.4028006956483</v>
+        <v>84.17899699467246</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>39.30342767853521</v>
+        <v>22.91176559244841</v>
       </c>
       <c r="C25">
-        <v>1.996785506021453</v>
+        <v>1.164017597308629</v>
       </c>
       <c r="D25">
-        <v>15.03926488564602</v>
+        <v>8.767075344190543</v>
       </c>
       <c r="E25">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="F25">
-        <v>10.62766414985784</v>
+        <v>6.19535150441325</v>
       </c>
       <c r="G25">
-        <v>42.26637703911253</v>
+        <v>24.63900428946716</v>
       </c>
       <c r="H25">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="I25">
-        <v>117.9531612319019</v>
+        <v>68.76029243906218</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>32.33140420247153</v>
+        <v>18.84745423275859</v>
       </c>
       <c r="C26">
-        <v>2.69566043312896</v>
+        <v>1.57142375636665</v>
       </c>
       <c r="D26">
-        <v>12.75068109869988</v>
+        <v>7.432955183118072</v>
       </c>
       <c r="E26">
-        <v>2.983822044815013</v>
+        <v>1.739406339303015</v>
       </c>
       <c r="F26">
-        <v>13.08020203059425</v>
+        <v>7.62504800543169</v>
       </c>
       <c r="G26">
-        <v>34.61470533375596</v>
+        <v>20.17849489223602</v>
       </c>
       <c r="H26">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="I26">
-        <v>99.70409805152681</v>
+        <v>58.12207886414584</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>32.2230307805638</v>
+        <v>18.78427840851472</v>
       </c>
       <c r="C27">
-        <v>3.095017534333252</v>
+        <v>1.804227275828376</v>
       </c>
       <c r="D27">
-        <v>9.481275688776835</v>
+        <v>5.527069238728821</v>
       </c>
       <c r="E27">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="F27">
-        <v>14.26105360280068</v>
+        <v>8.313420394810942</v>
       </c>
       <c r="G27">
-        <v>34.97907065305865</v>
+        <v>20.39090010162799</v>
       </c>
       <c r="H27">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I27">
-        <v>98.39926924589766</v>
+        <v>57.36143447512794</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>30.30843366019397</v>
+        <v>17.6681721802061</v>
       </c>
       <c r="C28">
-        <v>2.69566043312896</v>
+        <v>1.57142375636665</v>
       </c>
       <c r="D28">
-        <v>10.13515677076144</v>
+        <v>5.90824642760667</v>
       </c>
       <c r="E28">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="F28">
-        <v>10.62766414985784</v>
+        <v>6.19535150441325</v>
       </c>
       <c r="G28">
-        <v>27.32739894770208</v>
+        <v>15.93039070439687</v>
       </c>
       <c r="H28">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="I28">
-        <v>88.15627702058704</v>
+        <v>51.3903258290554</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>37.46107950610389</v>
+        <v>21.8377765803024</v>
       </c>
       <c r="C29">
-        <v>2.595821157827888</v>
+        <v>1.513222876501218</v>
       </c>
       <c r="D29">
-        <v>12.09680001671527</v>
+        <v>7.05177799424022</v>
       </c>
       <c r="E29">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="F29">
-        <v>11.89935045838783</v>
+        <v>6.93667561605244</v>
       </c>
       <c r="G29">
-        <v>34.61470533375596</v>
+        <v>20.17849489223602</v>
       </c>
       <c r="H29">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I29">
-        <v>104.0471127126872</v>
+        <v>60.65382074414011</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>32.6565244681947</v>
+        <v>19.03698170549025</v>
       </c>
       <c r="C30">
-        <v>3.494374635537541</v>
+        <v>2.037030795290101</v>
       </c>
       <c r="D30">
-        <v>11.44291893473067</v>
+        <v>6.670600805362371</v>
       </c>
       <c r="E30">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="F30">
-        <v>10.35515994088712</v>
+        <v>6.03649633763342</v>
       </c>
       <c r="G30">
-        <v>30.60668682142632</v>
+        <v>17.84203758892449</v>
       </c>
       <c r="H30">
-        <v>1.425854752069954</v>
+        <v>0.8311959484934923</v>
       </c>
       <c r="I30">
-        <v>93.95994894593299</v>
+        <v>54.77355163359815</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>40.85678005921262</v>
+        <v>23.8172857399441</v>
       </c>
       <c r="C31">
-        <v>3.394535360236469</v>
+        <v>1.978829915424671</v>
       </c>
       <c r="D31">
-        <v>16.34702704961523</v>
+        <v>9.529429721946242</v>
       </c>
       <c r="E31">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="F31">
-        <v>9.628482050298549</v>
+        <v>5.612882559553884</v>
       </c>
       <c r="G31">
-        <v>27.32739894770208</v>
+        <v>15.93039070439687</v>
       </c>
       <c r="H31">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I31">
-        <v>103.5467954619552</v>
+        <v>60.36216293596151</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>50.82713487472337</v>
+        <v>29.62946157038139</v>
       </c>
       <c r="C32">
-        <v>2.595821157827888</v>
+        <v>1.513222876501218</v>
       </c>
       <c r="D32">
-        <v>21.9050162464844</v>
+        <v>12.76943582740796</v>
       </c>
       <c r="E32">
-        <v>7.956858786173368</v>
+        <v>4.638416904808042</v>
       </c>
       <c r="F32">
-        <v>10.17349046823998</v>
+        <v>5.930592893113539</v>
       </c>
       <c r="G32">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="H32">
-        <v>2.495245816122419</v>
+        <v>1.454592909863612</v>
       </c>
       <c r="I32">
-        <v>117.8154865077331</v>
+        <v>68.68003554559326</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>60.68911626832646</v>
+        <v>35.37846157657478</v>
       </c>
       <c r="C33">
-        <v>2.595821157827888</v>
+        <v>1.513222876501218</v>
       </c>
       <c r="D33">
-        <v>14.3853838036614</v>
+        <v>8.385898155312693</v>
       </c>
       <c r="E33">
-        <v>11.93528817926005</v>
+        <v>6.957625357212062</v>
       </c>
       <c r="F33">
-        <v>6.721770487944272</v>
+        <v>3.918427447235731</v>
       </c>
       <c r="G33">
-        <v>16.76080468792394</v>
+        <v>9.770639632030079</v>
       </c>
       <c r="H33">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I33">
-        <v>113.801111960979</v>
+        <v>66.33987301911331</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>62.92883365441942</v>
+        <v>36.68409527761505</v>
       </c>
       <c r="C34">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D34">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="E34">
-        <v>14.91911022407507</v>
+        <v>8.697031696515078</v>
       </c>
       <c r="F34">
-        <v>4.087563134560705</v>
+        <v>2.382827501697404</v>
       </c>
       <c r="G34">
-        <v>19.3113619230428</v>
+        <v>11.25747609777379</v>
       </c>
       <c r="H34">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I34">
-        <v>112.6310668640909</v>
+        <v>65.65780021844678</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>42.22951007004382</v>
+        <v>24.6175128470333</v>
       </c>
       <c r="C35">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="D35">
-        <v>4.90410811488457</v>
+        <v>2.858828916583872</v>
       </c>
       <c r="E35">
-        <v>12.26682396201728</v>
+        <v>7.15089272824573</v>
       </c>
       <c r="F35">
-        <v>4.269232607207848</v>
+        <v>2.488730946217288</v>
       </c>
       <c r="G35">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="H35">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I35">
-        <v>87.3072541611411</v>
+        <v>50.89539157300626</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>35.83547817748799</v>
+        <v>20.89013921664416</v>
       </c>
       <c r="C36">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="D36">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="E36">
-        <v>10.27760926547393</v>
+        <v>5.99128850204372</v>
       </c>
       <c r="F36">
-        <v>3.451719980295707</v>
+        <v>2.012165445877808</v>
       </c>
       <c r="G36">
-        <v>28.05612958630747</v>
+        <v>16.35520112318078</v>
       </c>
       <c r="H36">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I36">
-        <v>87.47237193983365</v>
+        <v>50.99164627810457</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>30.56130497797867</v>
+        <v>17.81558243677516</v>
       </c>
       <c r="C37">
-        <v>1.89694623072038</v>
+        <v>1.105816717443198</v>
       </c>
       <c r="D37">
-        <v>6.865751360838398</v>
+        <v>4.002360483217423</v>
       </c>
       <c r="E37">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="F37">
-        <v>2.18003367176571</v>
+        <v>1.270841334238615</v>
       </c>
       <c r="G37">
-        <v>16.03207404931855</v>
+        <v>9.34582921324616</v>
       </c>
       <c r="I37">
-        <v>62.17761124922283</v>
+        <v>36.24617337939191</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>12.71581483717317</v>
+        <v>7.412630044615669</v>
       </c>
       <c r="C38">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="D38">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E38">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="F38">
-        <v>1.635025253824282</v>
+        <v>0.9531310006789613</v>
       </c>
       <c r="G38">
-        <v>10.56659425977813</v>
+        <v>6.159751072366789</v>
       </c>
       <c r="I38">
-        <v>31.47411377165634</v>
+        <v>18.34770043122912</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>8.164131117048676</v>
+        <v>4.759245426372563</v>
       </c>
       <c r="C39">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D39">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E39">
-        <v>1.989214696543342</v>
+        <v>1.159604226202011</v>
       </c>
       <c r="F39">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="G39">
-        <v>10.20222894047544</v>
+        <v>5.947345862974831</v>
       </c>
       <c r="I39">
-        <v>23.05246248166616</v>
+        <v>13.43833471799454</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>8.236380064987161</v>
+        <v>4.801362642535147</v>
       </c>
       <c r="C40">
-        <v>1.797106955419307</v>
+        <v>1.047615837577766</v>
       </c>
       <c r="D40">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E40">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="F40">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="G40">
-        <v>14.93897809141046</v>
+        <v>8.708613585070287</v>
       </c>
       <c r="I40">
-        <v>29.30961771795567</v>
+        <v>17.08591668519586</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.901443188678127</v>
+        <v>2.274329672779808</v>
       </c>
       <c r="C41">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="D41">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="E41">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F41">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="G41">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="I41">
-        <v>24.34002951546508</v>
+        <v>14.18891643072073</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.829194240739646</v>
+        <v>2.232212456617218</v>
       </c>
       <c r="C42">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="F42">
-        <v>1.45335578117714</v>
+        <v>0.8472275561590766</v>
       </c>
       <c r="G42">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="I42">
-        <v>19.86229886442828</v>
+        <v>11.5786424387985</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>3.178953709293292</v>
+        <v>1.853157511153917</v>
       </c>
       <c r="C43">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D43">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="E43">
-        <v>0.994607348271671</v>
+        <v>0.5798021131010053</v>
       </c>
       <c r="F43">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="G43">
-        <v>18.21826596513472</v>
+        <v>10.62026046959791</v>
       </c>
       <c r="I43">
-        <v>24.97984208625521</v>
+        <v>14.56189244097978</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>5.165799777601595</v>
+        <v>3.011380955625116</v>
       </c>
       <c r="C44">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D44">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="E44">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="F44">
-        <v>2.270868408089281</v>
+        <v>1.323793056498558</v>
       </c>
       <c r="G44">
-        <v>25.14120703188591</v>
+        <v>14.65595944804512</v>
       </c>
       <c r="I44">
-        <v>35.81081616438134</v>
+        <v>20.87576260125175</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>14.91940774929691</v>
+        <v>8.697205137574636</v>
       </c>
       <c r="C45">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D45">
-        <v>4.250227032899961</v>
+        <v>2.477651727706023</v>
       </c>
       <c r="E45">
-        <v>5.967644089630027</v>
+        <v>3.478812678606031</v>
       </c>
       <c r="F45">
-        <v>4.087563134560705</v>
+        <v>2.382827501697404</v>
       </c>
       <c r="G45">
-        <v>52.83297129889068</v>
+        <v>30.79875536183395</v>
       </c>
       <c r="H45">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I45">
-        <v>82.83508080109347</v>
+        <v>48.28835718017232</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>33.81250763521043</v>
+        <v>19.71085716409167</v>
       </c>
       <c r="C46">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D46">
-        <v>10.13515677076144</v>
+        <v>5.90824642760667</v>
       </c>
       <c r="E46">
-        <v>15.91371757234674</v>
+        <v>9.276833809616084</v>
       </c>
       <c r="F46">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="G46">
-        <v>58.29845108843109</v>
+        <v>33.98483350271331</v>
       </c>
       <c r="H46">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I46">
-        <v>127.6233463754184</v>
+        <v>74.39748563900361</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>49.02091117626131</v>
+        <v>28.57653116631666</v>
       </c>
       <c r="C47">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D47">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="E47">
-        <v>13.26143131028895</v>
+        <v>7.730694841346736</v>
       </c>
       <c r="F47">
-        <v>7.99345679647427</v>
+        <v>4.659751558874922</v>
       </c>
       <c r="G47">
-        <v>36.80089724957213</v>
+        <v>21.45292614858778</v>
       </c>
       <c r="H47">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I47">
-        <v>118.5747861848181</v>
+        <v>69.12266605502572</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>55.45106754278638</v>
+        <v>32.32496340478708</v>
       </c>
       <c r="C48">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D48">
-        <v>10.78903785274605</v>
+        <v>6.289423616484522</v>
       </c>
       <c r="E48">
-        <v>10.60914504823116</v>
+        <v>6.184555873077388</v>
       </c>
       <c r="F48">
-        <v>9.174308368680693</v>
+        <v>5.348123948254172</v>
       </c>
       <c r="G48">
-        <v>33.15724405654517</v>
+        <v>19.3288740546682</v>
       </c>
       <c r="H48">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I48">
-        <v>120.935016411222</v>
+        <v>70.49855220251077</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>39.80917031410461</v>
+        <v>23.20658610558657</v>
       </c>
       <c r="C49">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="D49">
-        <v>12.42374055770758</v>
+        <v>7.242366588679145</v>
       </c>
       <c r="E49">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="F49">
-        <v>11.53601151309355</v>
+        <v>6.724868727012671</v>
       </c>
       <c r="G49">
-        <v>44.81693427423141</v>
+        <v>26.12584075521086</v>
       </c>
       <c r="H49">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I49">
-        <v>117.9333752479318</v>
+        <v>68.74875828406564</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_겨울_배출량/동부대로_S_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>17.98405130142552</v>
+        <v>30.85030076973261</v>
       </c>
       <c r="C2">
-        <v>1.57142375636665</v>
+        <v>2.69566043312896</v>
       </c>
       <c r="D2">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="E2">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="F2">
-        <v>6.777820449272613</v>
+        <v>11.62684624941712</v>
       </c>
       <c r="G2">
-        <v>18.47925321710037</v>
+        <v>31.6997827793344</v>
       </c>
       <c r="H2">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="I2">
-        <v>54.51893933048437</v>
+        <v>93.52318050043195</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>18.46839928729529</v>
+        <v>31.68116367102517</v>
       </c>
       <c r="C3">
-        <v>1.862428155693807</v>
+        <v>3.194856809634324</v>
       </c>
       <c r="D3">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="E3">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="F3">
-        <v>5.877641170853595</v>
+        <v>10.08265573191641</v>
       </c>
       <c r="G3">
-        <v>15.71798549500491</v>
+        <v>26.96303362839938</v>
       </c>
       <c r="H3">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I3">
-        <v>50.08175150407076</v>
+        <v>85.91151521310012</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>18.65792676002694</v>
+        <v>32.00628393674835</v>
       </c>
       <c r="C4">
-        <v>2.211633434886397</v>
+        <v>3.79389246144076</v>
       </c>
       <c r="D4">
-        <v>6.098835022045596</v>
+        <v>10.46209731175375</v>
       </c>
       <c r="E4">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="F4">
-        <v>5.612882559553884</v>
+        <v>9.628482050298549</v>
       </c>
       <c r="G4">
-        <v>17.41722717014057</v>
+        <v>29.87795618282093</v>
       </c>
       <c r="H4">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I4">
-        <v>52.33224501514712</v>
+        <v>89.77206924140928</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>21.8588351883837</v>
+        <v>37.49720398007314</v>
       </c>
       <c r="C5">
-        <v>1.978829915424671</v>
+        <v>3.394535360236469</v>
       </c>
       <c r="D5">
-        <v>8.57648674975162</v>
+        <v>14.71232434465371</v>
       </c>
       <c r="E5">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="F5">
-        <v>7.307337671872037</v>
+        <v>12.53519361265283</v>
       </c>
       <c r="G5">
-        <v>18.2668480077084</v>
+        <v>31.33541746003171</v>
       </c>
       <c r="H5">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="I5">
-        <v>61.71854404713894</v>
+        <v>105.8735662510762</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>21.41660441867653</v>
+        <v>36.73859002671903</v>
       </c>
       <c r="C6">
-        <v>1.687825516097514</v>
+        <v>2.895338983731107</v>
       </c>
       <c r="D6">
-        <v>7.623543777556994</v>
+        <v>13.07762163969219</v>
       </c>
       <c r="E6">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="F6">
-        <v>7.095530782832268</v>
+        <v>12.17185466735855</v>
       </c>
       <c r="G6">
-        <v>18.47925321710037</v>
+        <v>31.6997827793344</v>
       </c>
       <c r="H6">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I6">
-        <v>59.43863049707149</v>
+        <v>101.9625443367317</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>24.38586815813905</v>
+        <v>41.83214085638214</v>
       </c>
       <c r="C7">
-        <v>1.629624636232081</v>
+        <v>2.795499708430033</v>
       </c>
       <c r="D7">
-        <v>8.195309560873769</v>
+        <v>14.0584432626691</v>
       </c>
       <c r="E7">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="F7">
-        <v>5.824689448593653</v>
+        <v>9.991820995592834</v>
       </c>
       <c r="G7">
-        <v>16.35520112318078</v>
+        <v>28.05612958630747</v>
       </c>
       <c r="H7">
-        <v>1.038994935616866</v>
+        <v>1.782318440087441</v>
       </c>
       <c r="I7">
-        <v>60.13543105710756</v>
+        <v>103.1578538080701</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>27.08136999254476</v>
+        <v>46.4560735244451</v>
       </c>
       <c r="C8">
-        <v>1.280419357039493</v>
+        <v>2.196464056623598</v>
       </c>
       <c r="D8">
-        <v>11.24472707189656</v>
+        <v>19.28949191854597</v>
       </c>
       <c r="E8">
-        <v>4.445149533774374</v>
+        <v>7.625323003416145</v>
       </c>
       <c r="F8">
-        <v>6.248303226673191</v>
+        <v>10.7184988861814</v>
       </c>
       <c r="G8">
-        <v>11.46988130716574</v>
+        <v>19.67572724234549</v>
       </c>
       <c r="H8">
-        <v>1.142894429178552</v>
+        <v>1.960550284096186</v>
       </c>
       <c r="I8">
-        <v>62.91274491827269</v>
+        <v>107.9221289156539</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>31.39838464921013</v>
+        <v>53.86159068813971</v>
       </c>
       <c r="C9">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D9">
-        <v>9.338841127507319</v>
+        <v>16.02008650862293</v>
       </c>
       <c r="E9">
-        <v>5.411486388942715</v>
+        <v>9.283001917202261</v>
       </c>
       <c r="F9">
-        <v>3.071199891076654</v>
+        <v>5.268414706767133</v>
       </c>
       <c r="G9">
-        <v>9.983044841422036</v>
+        <v>17.12517000722663</v>
       </c>
       <c r="H9">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I9">
-        <v>60.43336719052164</v>
+        <v>103.6689410582086</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>35.16787549576184</v>
+        <v>60.32787152863403</v>
       </c>
       <c r="C10">
-        <v>0.7566114382506091</v>
+        <v>1.297910578913944</v>
       </c>
       <c r="D10">
-        <v>5.90824642760667</v>
+        <v>10.13515677076144</v>
       </c>
       <c r="E10">
-        <v>7.923962212380405</v>
+        <v>13.59296709304617</v>
       </c>
       <c r="F10">
-        <v>2.06511716813775</v>
+        <v>3.542554716619278</v>
       </c>
       <c r="G10">
-        <v>11.25747609777379</v>
+        <v>19.3113619230428</v>
       </c>
       <c r="H10">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I10">
-        <v>63.28708782703443</v>
+        <v>108.5642862990351</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>24.44904398238294</v>
+        <v>41.94051427828987</v>
       </c>
       <c r="C11">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="D11">
-        <v>3.049417511022798</v>
+        <v>5.231048655876874</v>
       </c>
       <c r="E11">
-        <v>7.730694841346736</v>
+        <v>13.26143131028895</v>
       </c>
       <c r="F11">
-        <v>2.118068890397692</v>
+        <v>3.63338945294285</v>
       </c>
       <c r="G11">
-        <v>11.46988130716574</v>
+        <v>19.67572724234549</v>
       </c>
       <c r="H11">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I11">
-        <v>50.01432047715161</v>
+        <v>85.79584230787975</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>19.39497804287225</v>
+        <v>33.27064052567183</v>
       </c>
       <c r="C12">
-        <v>1.222218477174061</v>
+        <v>2.096624781322525</v>
       </c>
       <c r="D12">
-        <v>4.574126266534197</v>
+        <v>7.846572983815314</v>
       </c>
       <c r="E12">
-        <v>5.798021131010052</v>
+        <v>9.946073482716711</v>
       </c>
       <c r="F12">
-        <v>1.429696501018442</v>
+        <v>2.452537880736423</v>
       </c>
       <c r="G12">
-        <v>15.93039070439687</v>
+        <v>27.32739894770208</v>
       </c>
       <c r="I12">
-        <v>48.34943112300587</v>
+        <v>82.93984860196488</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>17.16276558625503</v>
+        <v>29.44144628493219</v>
       </c>
       <c r="C13">
-        <v>1.280419357039493</v>
+        <v>2.196464056623598</v>
       </c>
       <c r="D13">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="E13">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="F13">
-        <v>1.482648223278385</v>
+        <v>2.543372617059995</v>
       </c>
       <c r="G13">
-        <v>9.34582921324616</v>
+        <v>16.03207404931855</v>
       </c>
       <c r="I13">
-        <v>34.6349307900564</v>
+        <v>59.41364457336805</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>10.88730037802926</v>
+        <v>18.67635304209808</v>
       </c>
       <c r="C14">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="D14">
-        <v>2.477651727706023</v>
+        <v>4.250227032899961</v>
       </c>
       <c r="E14">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="F14">
-        <v>1.217889611978672</v>
+        <v>2.089198935442139</v>
       </c>
       <c r="G14">
-        <v>10.83266567898987</v>
+        <v>18.5826312844374</v>
       </c>
       <c r="I14">
-        <v>29.36213379978662</v>
+        <v>50.36855399165525</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>6.907223450664603</v>
+        <v>11.84882746191136</v>
       </c>
       <c r="C15">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="D15">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E15">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F15">
-        <v>0.5824689448593653</v>
+        <v>0.9991820995592837</v>
       </c>
       <c r="G15">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="I15">
-        <v>18.70747310322398</v>
+        <v>32.09127699888157</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,28 +832,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>3.390435901088416</v>
+        <v>5.816040309047951</v>
       </c>
       <c r="C16">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="D16">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="E16">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="F16">
-        <v>1.059034445198846</v>
+        <v>1.816694726471425</v>
       </c>
       <c r="G16">
-        <v>7.434182328718538</v>
+        <v>12.7527861755943</v>
       </c>
       <c r="H16">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I16">
-        <v>14.52042731795443</v>
+        <v>24.90871175553352</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,25 +861,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>2.400681321267573</v>
+        <v>4.118190032493581</v>
       </c>
       <c r="C17">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D17">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E17">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="F17">
-        <v>1.111986167458788</v>
+        <v>1.907529462794996</v>
       </c>
       <c r="G17">
-        <v>7.22177711932658</v>
+        <v>12.3884208562916</v>
       </c>
       <c r="I17">
-        <v>12.41249919985435</v>
+        <v>21.29271804230333</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,22 +887,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>1.663630038422267</v>
+        <v>2.853833443570113</v>
       </c>
       <c r="C18">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D18">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="F18">
-        <v>0.9531310006789613</v>
+        <v>1.635025253824282</v>
       </c>
       <c r="G18">
-        <v>6.372156281758746</v>
+        <v>10.93095957908083</v>
       </c>
       <c r="I18">
-        <v>9.909888383369339</v>
+        <v>16.99967555125858</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,25 +910,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>1.516219781853205</v>
+        <v>2.600962125785418</v>
       </c>
       <c r="C19">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D19">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E19">
-        <v>0.3865347420673367</v>
+        <v>0.6630715655144475</v>
       </c>
       <c r="F19">
-        <v>0.9001792784190192</v>
+        <v>1.544190517500711</v>
       </c>
       <c r="G19">
-        <v>9.770639632030079</v>
+        <v>16.76080468792394</v>
       </c>
       <c r="I19">
-        <v>13.72734801634073</v>
+        <v>23.54824327271215</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -936,28 +936,28 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>2.61126740208052</v>
+        <v>4.479434772185998</v>
       </c>
       <c r="C20">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D20">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E20">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="F20">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="G20">
-        <v>17.84203758892449</v>
+        <v>30.60668682142632</v>
       </c>
       <c r="H20">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I20">
-        <v>23.86079332943097</v>
+        <v>40.93141408905045</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,28 +965,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>8.57085348908687</v>
+        <v>14.70266090548146</v>
       </c>
       <c r="C21">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D21">
-        <v>1.905885944389248</v>
+        <v>3.269405409923047</v>
       </c>
       <c r="E21">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="F21">
-        <v>1.641503390058211</v>
+        <v>2.815876826030709</v>
       </c>
       <c r="G21">
-        <v>25.9134355458189</v>
+        <v>44.45256895492871</v>
       </c>
       <c r="H21">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I21">
-        <v>42.58293408224259</v>
+        <v>73.04785234852787</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -994,28 +994,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>19.14227474589673</v>
+        <v>32.83714683804092</v>
       </c>
       <c r="C22">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D22">
-        <v>5.145892049850972</v>
+        <v>8.827394606792224</v>
       </c>
       <c r="E22">
-        <v>8.310496954447743</v>
+        <v>14.25603865856062</v>
       </c>
       <c r="F22">
-        <v>4.553848114355038</v>
+        <v>7.811787323827126</v>
       </c>
       <c r="G22">
-        <v>28.03748763973849</v>
+        <v>48.09622214795564</v>
       </c>
       <c r="H22">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I22">
-        <v>66.07120451745918</v>
+        <v>113.3402311536201</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1023,28 +1023,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>29.88216486735691</v>
+        <v>51.26062856235433</v>
       </c>
       <c r="C23">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D23">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="E23">
-        <v>7.537427470313067</v>
+        <v>12.92989552753173</v>
       </c>
       <c r="F23">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="G23">
-        <v>23.78938345189932</v>
+        <v>40.80891576190176</v>
       </c>
       <c r="H23">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I23">
-        <v>75.11055386686806</v>
+        <v>128.8465618194944</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1052,28 +1052,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>35.37846157657478</v>
+        <v>60.68911626832646</v>
       </c>
       <c r="C24">
-        <v>1.746026395962944</v>
+        <v>2.995178259032178</v>
       </c>
       <c r="D24">
-        <v>8.385898155312693</v>
+        <v>14.3853838036614</v>
       </c>
       <c r="E24">
-        <v>8.117229583414074</v>
+        <v>13.92450287580339</v>
       </c>
       <c r="F24">
-        <v>6.67191700475273</v>
+        <v>11.44517677676997</v>
       </c>
       <c r="G24">
-        <v>23.15216782372344</v>
+        <v>39.71581980399367</v>
       </c>
       <c r="H24">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="I24">
-        <v>84.17899699467246</v>
+        <v>144.4028006956483</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1081,28 +1081,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>22.91176559244841</v>
+        <v>39.30342767853521</v>
       </c>
       <c r="C25">
-        <v>1.164017597308629</v>
+        <v>1.996785506021453</v>
       </c>
       <c r="D25">
-        <v>8.767075344190543</v>
+        <v>15.03926488564602</v>
       </c>
       <c r="E25">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="F25">
-        <v>6.19535150441325</v>
+        <v>10.62766414985784</v>
       </c>
       <c r="G25">
-        <v>24.63900428946716</v>
+        <v>42.26637703911253</v>
       </c>
       <c r="H25">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="I25">
-        <v>68.76029243906218</v>
+        <v>117.9531612319019</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1110,28 +1110,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>18.84745423275859</v>
+        <v>32.33140420247153</v>
       </c>
       <c r="C26">
-        <v>1.57142375636665</v>
+        <v>2.69566043312896</v>
       </c>
       <c r="D26">
-        <v>7.432955183118072</v>
+        <v>12.75068109869988</v>
       </c>
       <c r="E26">
-        <v>1.739406339303015</v>
+        <v>2.983822044815013</v>
       </c>
       <c r="F26">
-        <v>7.62504800543169</v>
+        <v>13.08020203059425</v>
       </c>
       <c r="G26">
-        <v>20.17849489223602</v>
+        <v>34.61470533375596</v>
       </c>
       <c r="H26">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="I26">
-        <v>58.12207886414584</v>
+        <v>99.70409805152681</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1139,28 +1139,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>18.78427840851472</v>
+        <v>32.2230307805638</v>
       </c>
       <c r="C27">
-        <v>1.804227275828376</v>
+        <v>3.095017534333252</v>
       </c>
       <c r="D27">
-        <v>5.527069238728821</v>
+        <v>9.481275688776835</v>
       </c>
       <c r="E27">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="F27">
-        <v>8.313420394810942</v>
+        <v>14.26105360280068</v>
       </c>
       <c r="G27">
-        <v>20.39090010162799</v>
+        <v>34.97907065305865</v>
       </c>
       <c r="H27">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I27">
-        <v>57.36143447512794</v>
+        <v>98.39926924589766</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1168,28 +1168,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>17.6681721802061</v>
+        <v>30.30843366019397</v>
       </c>
       <c r="C28">
-        <v>1.57142375636665</v>
+        <v>2.69566043312896</v>
       </c>
       <c r="D28">
-        <v>5.90824642760667</v>
+        <v>10.13515677076144</v>
       </c>
       <c r="E28">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="F28">
-        <v>6.19535150441325</v>
+        <v>10.62766414985784</v>
       </c>
       <c r="G28">
-        <v>15.93039070439687</v>
+        <v>27.32739894770208</v>
       </c>
       <c r="H28">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="I28">
-        <v>51.3903258290554</v>
+        <v>88.15627702058704</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1197,28 +1197,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>21.8377765803024</v>
+        <v>37.46107950610389</v>
       </c>
       <c r="C29">
-        <v>1.513222876501218</v>
+        <v>2.595821157827888</v>
       </c>
       <c r="D29">
-        <v>7.05177799424022</v>
+        <v>12.09680001671527</v>
       </c>
       <c r="E29">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="F29">
-        <v>6.93667561605244</v>
+        <v>11.89935045838783</v>
       </c>
       <c r="G29">
-        <v>20.17849489223602</v>
+        <v>34.61470533375596</v>
       </c>
       <c r="H29">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I29">
-        <v>60.65382074414011</v>
+        <v>104.0471127126872</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1226,28 +1226,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>19.03698170549025</v>
+        <v>32.6565244681947</v>
       </c>
       <c r="C30">
-        <v>2.037030795290101</v>
+        <v>3.494374635537541</v>
       </c>
       <c r="D30">
-        <v>6.670600805362371</v>
+        <v>11.44291893473067</v>
       </c>
       <c r="E30">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="F30">
-        <v>6.03649633763342</v>
+        <v>10.35515994088712</v>
       </c>
       <c r="G30">
-        <v>17.84203758892449</v>
+        <v>30.60668682142632</v>
       </c>
       <c r="H30">
-        <v>0.8311959484934923</v>
+        <v>1.425854752069954</v>
       </c>
       <c r="I30">
-        <v>54.77355163359815</v>
+        <v>93.95994894593299</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1255,28 +1255,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>23.8172857399441</v>
+        <v>40.85678005921262</v>
       </c>
       <c r="C31">
-        <v>1.978829915424671</v>
+        <v>3.394535360236469</v>
       </c>
       <c r="D31">
-        <v>9.529429721946242</v>
+        <v>16.34702704961523</v>
       </c>
       <c r="E31">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="F31">
-        <v>5.612882559553884</v>
+        <v>9.628482050298549</v>
       </c>
       <c r="G31">
-        <v>15.93039070439687</v>
+        <v>27.32739894770208</v>
       </c>
       <c r="H31">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I31">
-        <v>60.36216293596151</v>
+        <v>103.5467954619552</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,28 +1284,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>29.62946157038139</v>
+        <v>50.82713487472337</v>
       </c>
       <c r="C32">
-        <v>1.513222876501218</v>
+        <v>2.595821157827888</v>
       </c>
       <c r="D32">
-        <v>12.76943582740796</v>
+        <v>21.9050162464844</v>
       </c>
       <c r="E32">
-        <v>4.638416904808042</v>
+        <v>7.956858786173368</v>
       </c>
       <c r="F32">
-        <v>5.930592893113539</v>
+        <v>10.17349046823998</v>
       </c>
       <c r="G32">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="H32">
-        <v>1.454592909863612</v>
+        <v>2.495245816122419</v>
       </c>
       <c r="I32">
-        <v>68.68003554559326</v>
+        <v>117.8154865077331</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1313,28 +1313,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>35.37846157657478</v>
+        <v>60.68911626832646</v>
       </c>
       <c r="C33">
-        <v>1.513222876501218</v>
+        <v>2.595821157827888</v>
       </c>
       <c r="D33">
-        <v>8.385898155312693</v>
+        <v>14.3853838036614</v>
       </c>
       <c r="E33">
-        <v>6.957625357212062</v>
+        <v>11.93528817926005</v>
       </c>
       <c r="F33">
-        <v>3.918427447235731</v>
+        <v>6.721770487944272</v>
       </c>
       <c r="G33">
-        <v>9.770639632030079</v>
+        <v>16.76080468792394</v>
       </c>
       <c r="H33">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I33">
-        <v>66.33987301911331</v>
+        <v>113.801111960979</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1342,28 +1342,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>36.68409527761505</v>
+        <v>62.92883365441942</v>
       </c>
       <c r="C34">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D34">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="E34">
-        <v>8.697031696515078</v>
+        <v>14.91911022407507</v>
       </c>
       <c r="F34">
-        <v>2.382827501697404</v>
+        <v>4.087563134560705</v>
       </c>
       <c r="G34">
-        <v>11.25747609777379</v>
+        <v>19.3113619230428</v>
       </c>
       <c r="H34">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I34">
-        <v>65.65780021844678</v>
+        <v>112.6310668640909</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1371,28 +1371,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>24.6175128470333</v>
+        <v>42.22951007004382</v>
       </c>
       <c r="C35">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="D35">
-        <v>2.858828916583872</v>
+        <v>4.90410811488457</v>
       </c>
       <c r="E35">
-        <v>7.15089272824573</v>
+        <v>12.26682396201728</v>
       </c>
       <c r="F35">
-        <v>2.488730946217288</v>
+        <v>4.269232607207848</v>
       </c>
       <c r="G35">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="H35">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I35">
-        <v>50.89539157300626</v>
+        <v>87.3072541611411</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1400,28 +1400,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>20.89013921664416</v>
+        <v>35.83547817748799</v>
       </c>
       <c r="C36">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="D36">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="E36">
-        <v>5.99128850204372</v>
+        <v>10.27760926547393</v>
       </c>
       <c r="F36">
-        <v>2.012165445877808</v>
+        <v>3.451719980295707</v>
       </c>
       <c r="G36">
-        <v>16.35520112318078</v>
+        <v>28.05612958630747</v>
       </c>
       <c r="H36">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I36">
-        <v>50.99164627810457</v>
+        <v>87.47237193983365</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1429,25 +1429,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>17.81558243677516</v>
+        <v>30.56130497797867</v>
       </c>
       <c r="C37">
-        <v>1.105816717443198</v>
+        <v>1.89694623072038</v>
       </c>
       <c r="D37">
-        <v>4.002360483217423</v>
+        <v>6.865751360838398</v>
       </c>
       <c r="E37">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="F37">
-        <v>1.270841334238615</v>
+        <v>2.18003367176571</v>
       </c>
       <c r="G37">
-        <v>9.34582921324616</v>
+        <v>16.03207404931855</v>
       </c>
       <c r="I37">
-        <v>36.24617337939191</v>
+        <v>62.17761124922283</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1455,25 +1455,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>7.412630044615669</v>
+        <v>12.71581483717317</v>
       </c>
       <c r="C38">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="D38">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E38">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="F38">
-        <v>0.9531310006789613</v>
+        <v>1.635025253824282</v>
       </c>
       <c r="G38">
-        <v>6.159751072366789</v>
+        <v>10.56659425977813</v>
       </c>
       <c r="I38">
-        <v>18.34770043122912</v>
+        <v>31.47411377165634</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1481,25 +1481,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>4.759245426372563</v>
+        <v>8.164131117048676</v>
       </c>
       <c r="C39">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D39">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E39">
-        <v>1.159604226202011</v>
+        <v>1.989214696543342</v>
       </c>
       <c r="F39">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="G39">
-        <v>5.947345862974831</v>
+        <v>10.20222894047544</v>
       </c>
       <c r="I39">
-        <v>13.43833471799454</v>
+        <v>23.05246248166616</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>4.801362642535147</v>
+        <v>8.236380064987161</v>
       </c>
       <c r="C40">
-        <v>1.047615837577766</v>
+        <v>1.797106955419307</v>
       </c>
       <c r="D40">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E40">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="F40">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="G40">
-        <v>8.708613585070287</v>
+        <v>14.93897809141046</v>
       </c>
       <c r="I40">
-        <v>17.08591668519586</v>
+        <v>29.30961771795567</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,25 +1533,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>2.274329672779808</v>
+        <v>3.901443188678127</v>
       </c>
       <c r="C41">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="D41">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="E41">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F41">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="G41">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="I41">
-        <v>14.18891643072073</v>
+        <v>24.34002951546508</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1559,19 +1559,19 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>2.232212456617218</v>
+        <v>3.829194240739646</v>
       </c>
       <c r="C42">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="F42">
-        <v>0.8472275561590766</v>
+        <v>1.45335578117714</v>
       </c>
       <c r="G42">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="I42">
-        <v>11.5786424387985</v>
+        <v>19.86229886442828</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1579,25 +1579,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>1.853157511153917</v>
+        <v>3.178953709293292</v>
       </c>
       <c r="C43">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D43">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="E43">
-        <v>0.5798021131010053</v>
+        <v>0.994607348271671</v>
       </c>
       <c r="F43">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="G43">
-        <v>10.62026046959791</v>
+        <v>18.21826596513472</v>
       </c>
       <c r="I43">
-        <v>14.56189244097978</v>
+        <v>24.97984208625521</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1605,25 +1605,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>3.011380955625116</v>
+        <v>5.165799777601595</v>
       </c>
       <c r="C44">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D44">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="E44">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="F44">
-        <v>1.323793056498558</v>
+        <v>2.270868408089281</v>
       </c>
       <c r="G44">
-        <v>14.65595944804512</v>
+        <v>25.14120703188591</v>
       </c>
       <c r="I44">
-        <v>20.87576260125175</v>
+        <v>35.81081616438134</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1631,28 +1631,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>8.697205137574636</v>
+        <v>14.91940774929691</v>
       </c>
       <c r="C45">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D45">
-        <v>2.477651727706023</v>
+        <v>4.250227032899961</v>
       </c>
       <c r="E45">
-        <v>3.478812678606031</v>
+        <v>5.967644089630027</v>
       </c>
       <c r="F45">
-        <v>2.382827501697404</v>
+        <v>4.087563134560705</v>
       </c>
       <c r="G45">
-        <v>30.79875536183395</v>
+        <v>52.83297129889068</v>
       </c>
       <c r="H45">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I45">
-        <v>48.28835718017232</v>
+        <v>82.83508080109347</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,28 +1660,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>19.71085716409167</v>
+        <v>33.81250763521043</v>
       </c>
       <c r="C46">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D46">
-        <v>5.90824642760667</v>
+        <v>10.13515677076144</v>
       </c>
       <c r="E46">
-        <v>9.276833809616084</v>
+        <v>15.91371757234674</v>
       </c>
       <c r="F46">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="G46">
-        <v>33.98483350271331</v>
+        <v>58.29845108843109</v>
       </c>
       <c r="H46">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I46">
-        <v>74.39748563900361</v>
+        <v>127.6233463754184</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1689,28 +1689,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>28.57653116631666</v>
+        <v>49.02091117626131</v>
       </c>
       <c r="C47">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D47">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="E47">
-        <v>7.730694841346736</v>
+        <v>13.26143131028895</v>
       </c>
       <c r="F47">
-        <v>4.659751558874922</v>
+        <v>7.99345679647427</v>
       </c>
       <c r="G47">
-        <v>21.45292614858778</v>
+        <v>36.80089724957213</v>
       </c>
       <c r="H47">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I47">
-        <v>69.12266605502572</v>
+        <v>118.5747861848181</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1718,28 +1718,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>32.32496340478708</v>
+        <v>55.45106754278638</v>
       </c>
       <c r="C48">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D48">
-        <v>6.289423616484522</v>
+        <v>10.78903785274605</v>
       </c>
       <c r="E48">
-        <v>6.184555873077388</v>
+        <v>10.60914504823116</v>
       </c>
       <c r="F48">
-        <v>5.348123948254172</v>
+        <v>9.174308368680693</v>
       </c>
       <c r="G48">
-        <v>19.3288740546682</v>
+        <v>33.15724405654517</v>
       </c>
       <c r="H48">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I48">
-        <v>70.49855220251077</v>
+        <v>120.935016411222</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1747,28 +1747,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>23.20658610558657</v>
+        <v>39.80917031410461</v>
       </c>
       <c r="C49">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="D49">
-        <v>7.242366588679145</v>
+        <v>12.42374055770758</v>
       </c>
       <c r="E49">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="F49">
-        <v>6.724868727012671</v>
+        <v>11.53601151309355</v>
       </c>
       <c r="G49">
-        <v>26.12584075521086</v>
+        <v>44.81693427423141</v>
       </c>
       <c r="H49">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I49">
-        <v>68.74875828406564</v>
+        <v>117.9333752479318</v>
       </c>
     </row>
   </sheetData>
